--- a/CNN results/cnn_result_full.xlsx
+++ b/CNN results/cnn_result_full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdong3\OneDrive - University of Edinburgh\My python projects\caml-mimic\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdong3\OneDrive\python_projects\label-embedding-medical-coding\CNN results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -948,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2277,1184 +2277,6 @@
         <v>0.008±0.001</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
-      <c r="A14">
-        <v>2.50000042160115E-2</v>
-      </c>
-      <c r="B14">
-        <v>4.3169226932391003E-2</v>
-      </c>
-      <c r="C14">
-        <v>3.4834648712751097E-2</v>
-      </c>
-      <c r="D14">
-        <v>3.8556670241154299E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.28787795340639899</v>
-      </c>
-      <c r="F14">
-        <v>0.56920396384623695</v>
-      </c>
-      <c r="G14">
-        <v>0.36807267093866602</v>
-      </c>
-      <c r="H14">
-        <v>0.44705781731098099</v>
-      </c>
-      <c r="I14">
-        <v>0.331705696641175</v>
-      </c>
-      <c r="J14">
-        <v>0.61603310852237803</v>
-      </c>
-      <c r="K14">
-        <v>0.43121942523220902</v>
-      </c>
-      <c r="L14">
-        <v>0.45309997163069698</v>
-      </c>
-      <c r="M14">
-        <v>0.468996525648886</v>
-      </c>
-      <c r="N14">
-        <v>0.46091122370238002</v>
-      </c>
-      <c r="O14">
-        <v>0.83713925526251298</v>
-      </c>
-      <c r="P14">
-        <v>0.97272471511665004</v>
-      </c>
-      <c r="Q14">
-        <v>7.1843879635415499E-3</v>
-      </c>
-      <c r="R14">
-        <v>2.3758922852189099E-2</v>
-      </c>
-      <c r="S14">
-        <v>4.6911445460589299E-2</v>
-      </c>
-      <c r="T14">
-        <v>3.4677188293208698E-2</v>
-      </c>
-      <c r="U14">
-        <v>3.9877050331602597E-2</v>
-      </c>
-      <c r="V14">
-        <v>0.278532538908007</v>
-      </c>
-      <c r="W14">
-        <v>0.557594920439063</v>
-      </c>
-      <c r="X14">
-        <v>0.35754788514159402</v>
-      </c>
-      <c r="Y14">
-        <v>0.43570660961965302</v>
-      </c>
-      <c r="Z14">
-        <v>0.31501431317079698</v>
-      </c>
-      <c r="AA14">
-        <v>0.60779952550415095</v>
-      </c>
-      <c r="AB14">
-        <v>0.414960292201835</v>
-      </c>
-      <c r="AC14">
-        <v>0.43104713069483003</v>
-      </c>
-      <c r="AD14">
-        <v>0.46300909450375599</v>
-      </c>
-      <c r="AE14">
-        <v>0.44645680226011603</v>
-      </c>
-      <c r="AF14">
-        <v>0.82537052103701403</v>
-      </c>
-      <c r="AG14">
-        <v>0.97172882920222303</v>
-      </c>
-      <c r="AH14">
-        <v>7.5071169732733398E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="A15">
-        <v>2.48497422248758E-2</v>
-      </c>
-      <c r="B15">
-        <v>4.3240433280530698E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.5540053734447997E-2</v>
-      </c>
-      <c r="D15">
-        <v>3.9013907644381202E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.28930275179904502</v>
-      </c>
-      <c r="F15">
-        <v>0.55230254695137604</v>
-      </c>
-      <c r="G15">
-        <v>0.377931131610449</v>
-      </c>
-      <c r="H15">
-        <v>0.44877396157785798</v>
-      </c>
-      <c r="I15">
-        <v>0.328901049122098</v>
-      </c>
-      <c r="J15">
-        <v>0.61020846106683002</v>
-      </c>
-      <c r="K15">
-        <v>0.42742236310158299</v>
-      </c>
-      <c r="L15">
-        <v>0.44890581459107498</v>
-      </c>
-      <c r="M15">
-        <v>0.46470468015532301</v>
-      </c>
-      <c r="N15">
-        <v>0.45666864421761399</v>
-      </c>
-      <c r="O15">
-        <v>0.83610671557413896</v>
-      </c>
-      <c r="P15">
-        <v>0.97338968340700005</v>
-      </c>
-      <c r="Q15">
-        <v>7.2752288519133601E-3</v>
-      </c>
-      <c r="R15">
-        <v>2.5041307678100502E-2</v>
-      </c>
-      <c r="S15">
-        <v>4.9146775885261701E-2</v>
-      </c>
-      <c r="T15">
-        <v>3.62299779442396E-2</v>
-      </c>
-      <c r="U15">
-        <v>4.1711274474299599E-2</v>
-      </c>
-      <c r="V15">
-        <v>0.28061320814086599</v>
-      </c>
-      <c r="W15">
-        <v>0.542721518987341</v>
-      </c>
-      <c r="X15">
-        <v>0.36750403850591701</v>
-      </c>
-      <c r="Y15">
-        <v>0.43824818666089999</v>
-      </c>
-      <c r="Z15">
-        <v>0.31311997252260299</v>
-      </c>
-      <c r="AA15">
-        <v>0.60353647686832701</v>
-      </c>
-      <c r="AB15">
-        <v>0.41232312319182601</v>
-      </c>
-      <c r="AC15">
-        <v>0.43036979451822999</v>
-      </c>
-      <c r="AD15">
-        <v>0.46296955318307598</v>
-      </c>
-      <c r="AE15">
-        <v>0.44607485830394</v>
-      </c>
-      <c r="AF15">
-        <v>0.82748458657760604</v>
-      </c>
-      <c r="AG15">
-        <v>0.97275471338126795</v>
-      </c>
-      <c r="AH15">
-        <v>7.5783258856938103E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
-      <c r="A16">
-        <v>2.6410751129151699E-2</v>
-      </c>
-      <c r="B16">
-        <v>4.6707258610366301E-2</v>
-      </c>
-      <c r="C16">
-        <v>3.6518090809013297E-2</v>
-      </c>
-      <c r="D16">
-        <v>4.0988951642088302E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.28207666501677298</v>
-      </c>
-      <c r="F16">
-        <v>0.56294588958401903</v>
-      </c>
-      <c r="G16">
-        <v>0.36117174846841699</v>
-      </c>
-      <c r="H16">
-        <v>0.440030885380919</v>
-      </c>
-      <c r="I16">
-        <v>0.32752325332732102</v>
-      </c>
-      <c r="J16">
-        <v>0.60591661557326704</v>
-      </c>
-      <c r="K16">
-        <v>0.42520528164577798</v>
-      </c>
-      <c r="L16">
-        <v>0.44894694396948398</v>
-      </c>
-      <c r="M16">
-        <v>0.46319231555283003</v>
-      </c>
-      <c r="N16">
-        <v>0.45595839092924101</v>
-      </c>
-      <c r="O16">
-        <v>0.82997466490012095</v>
-      </c>
-      <c r="P16">
-        <v>0.97140511348672498</v>
-      </c>
-      <c r="Q16">
-        <v>7.3706981518141899E-3</v>
-      </c>
-      <c r="R16">
-        <v>2.4927309959530401E-2</v>
-      </c>
-      <c r="S16">
-        <v>5.1174512664921498E-2</v>
-      </c>
-      <c r="T16">
-        <v>3.6134357970879098E-2</v>
-      </c>
-      <c r="U16">
-        <v>4.2358998487865403E-2</v>
-      </c>
-      <c r="V16">
-        <v>0.27051206137528</v>
-      </c>
-      <c r="W16">
-        <v>0.55251741816747701</v>
-      </c>
-      <c r="X16">
-        <v>0.34640490554841202</v>
-      </c>
-      <c r="Y16">
-        <v>0.42583155185864302</v>
-      </c>
-      <c r="Z16">
-        <v>0.30977806767867999</v>
-      </c>
-      <c r="AA16">
-        <v>0.59375</v>
-      </c>
-      <c r="AB16">
-        <v>0.40713893516726302</v>
-      </c>
-      <c r="AC16">
-        <v>0.42639870480456998</v>
-      </c>
-      <c r="AD16">
-        <v>0.456722024515618</v>
-      </c>
-      <c r="AE16">
-        <v>0.441039765557519</v>
-      </c>
-      <c r="AF16">
-        <v>0.81978469289717104</v>
-      </c>
-      <c r="AG16">
-        <v>0.97048331800681198</v>
-      </c>
-      <c r="AH16">
-        <v>7.7147565627989001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17">
-        <v>2.18660730118444E-2</v>
-      </c>
-      <c r="B17">
-        <v>3.5450445741600299E-2</v>
-      </c>
-      <c r="C17">
-        <v>3.6941302583045399E-2</v>
-      </c>
-      <c r="D17">
-        <v>3.6180522591369502E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.28114173821358601</v>
-      </c>
-      <c r="F17">
-        <v>0.49485219389333202</v>
-      </c>
-      <c r="G17">
-        <v>0.39430321808323299</v>
-      </c>
-      <c r="H17">
-        <v>0.43889248133560599</v>
-      </c>
-      <c r="I17">
-        <v>0.32152741880688701</v>
-      </c>
-      <c r="J17">
-        <v>0.60591661557326704</v>
-      </c>
-      <c r="K17">
-        <v>0.42011980927276599</v>
-      </c>
-      <c r="L17">
-        <v>0.435089457724463</v>
-      </c>
-      <c r="M17">
-        <v>0.45530349478847298</v>
-      </c>
-      <c r="N17">
-        <v>0.44496702290484802</v>
-      </c>
-      <c r="O17">
-        <v>0.83052076253585305</v>
-      </c>
-      <c r="P17">
-        <v>0.97054759227476395</v>
-      </c>
-      <c r="Q17">
-        <v>9.4391613846655006E-3</v>
-      </c>
-      <c r="R17">
-        <v>2.1383445938205299E-2</v>
-      </c>
-      <c r="S17">
-        <v>3.7531658088501597E-2</v>
-      </c>
-      <c r="T17">
-        <v>3.6528633714861897E-2</v>
-      </c>
-      <c r="U17">
-        <v>3.7023353747143703E-2</v>
-      </c>
-      <c r="V17">
-        <v>0.27046450482033302</v>
-      </c>
-      <c r="W17">
-        <v>0.48164564864527398</v>
-      </c>
-      <c r="X17">
-        <v>0.38151518148551</v>
-      </c>
-      <c r="Y17">
-        <v>0.42577262693156698</v>
-      </c>
-      <c r="Z17">
-        <v>0.30683515629381197</v>
-      </c>
-      <c r="AA17">
-        <v>0.59767941874258601</v>
-      </c>
-      <c r="AB17">
-        <v>0.40549718694382902</v>
-      </c>
-      <c r="AC17">
-        <v>0.41850785347402403</v>
-      </c>
-      <c r="AD17">
-        <v>0.45334124159746902</v>
-      </c>
-      <c r="AE17">
-        <v>0.43522869034267397</v>
-      </c>
-      <c r="AF17">
-        <v>0.81568383465785399</v>
-      </c>
-      <c r="AG17">
-        <v>0.96831744402567099</v>
-      </c>
-      <c r="AH17">
-        <v>9.9165179860758196E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18">
-        <v>2.36684996758681E-2</v>
-      </c>
-      <c r="B18">
-        <v>3.8581229776084802E-2</v>
-      </c>
-      <c r="C18">
-        <v>3.6817094608531199E-2</v>
-      </c>
-      <c r="D18">
-        <v>3.7678523982408799E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.28457759811697197</v>
-      </c>
-      <c r="F18">
-        <v>0.51006557527399399</v>
-      </c>
-      <c r="G18">
-        <v>0.39162735018660599</v>
-      </c>
-      <c r="H18">
-        <v>0.44306797586090102</v>
-      </c>
-      <c r="I18">
-        <v>0.32475122283268099</v>
-      </c>
-      <c r="J18">
-        <v>0.60568669527897001</v>
-      </c>
-      <c r="K18">
-        <v>0.42280627458634501</v>
-      </c>
-      <c r="L18">
-        <v>0.442749302026547</v>
-      </c>
-      <c r="M18">
-        <v>0.459840588595953</v>
-      </c>
-      <c r="N18">
-        <v>0.45113312648321302</v>
-      </c>
-      <c r="O18">
-        <v>0.83932651951599302</v>
-      </c>
-      <c r="P18">
-        <v>0.97261469238197995</v>
-      </c>
-      <c r="Q18">
-        <v>8.0509899682459501E-3</v>
-      </c>
-      <c r="R18">
-        <v>2.3704054631161601E-2</v>
-      </c>
-      <c r="S18">
-        <v>4.4214908519498997E-2</v>
-      </c>
-      <c r="T18">
-        <v>3.77701541560908E-2</v>
-      </c>
-      <c r="U18">
-        <v>4.0739223860498497E-2</v>
-      </c>
-      <c r="V18">
-        <v>0.27768852655556803</v>
-      </c>
-      <c r="W18">
-        <v>0.50455278177144602</v>
-      </c>
-      <c r="X18">
-        <v>0.38179540434510201</v>
-      </c>
-      <c r="Y18">
-        <v>0.43467327252936899</v>
-      </c>
-      <c r="Z18">
-        <v>0.31101595779180602</v>
-      </c>
-      <c r="AA18">
-        <v>0.601312277580071</v>
-      </c>
-      <c r="AB18">
-        <v>0.40997901126518899</v>
-      </c>
-      <c r="AC18">
-        <v>0.42394008545253598</v>
-      </c>
-      <c r="AD18">
-        <v>0.45654408857255802</v>
-      </c>
-      <c r="AE18">
-        <v>0.43963842992772401</v>
-      </c>
-      <c r="AF18">
-        <v>0.82895780816947295</v>
-      </c>
-      <c r="AG18">
-        <v>0.97163580082339296</v>
-      </c>
-      <c r="AH18">
-        <v>8.3909612658576108E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19">
-        <v>2.3957266538618099E-2</v>
-      </c>
-      <c r="B19">
-        <v>4.3661145946770001E-2</v>
-      </c>
-      <c r="C19">
-        <v>3.3246132793432699E-2</v>
-      </c>
-      <c r="D19">
-        <v>3.7748423291980797E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.28647523928422802</v>
-      </c>
-      <c r="F19">
-        <v>0.574656352607268</v>
-      </c>
-      <c r="G19">
-        <v>0.36356594606013598</v>
-      </c>
-      <c r="H19">
-        <v>0.445364559746393</v>
-      </c>
-      <c r="I19">
-        <v>0.33067591407059299</v>
-      </c>
-      <c r="J19">
-        <v>0.61289086450030605</v>
-      </c>
-      <c r="K19">
-        <v>0.42957902174366702</v>
-      </c>
-      <c r="L19">
-        <v>0.44990117545633301</v>
-      </c>
-      <c r="M19">
-        <v>0.46572654812998099</v>
-      </c>
-      <c r="N19">
-        <v>0.457677101833946</v>
-      </c>
-      <c r="O19">
-        <v>0.83888699418628099</v>
-      </c>
-      <c r="P19">
-        <v>0.97332813124748396</v>
-      </c>
-      <c r="Q19">
-        <v>7.1987542791998897E-3</v>
-      </c>
-      <c r="R19">
-        <v>2.3845471565213001E-2</v>
-      </c>
-      <c r="S19">
-        <v>4.7117133833339597E-2</v>
-      </c>
-      <c r="T19">
-        <v>3.3753550801069898E-2</v>
-      </c>
-      <c r="U19">
-        <v>3.93312008581106E-2</v>
-      </c>
-      <c r="V19">
-        <v>0.278523142272527</v>
-      </c>
-      <c r="W19">
-        <v>0.56509629785333204</v>
-      </c>
-      <c r="X19">
-        <v>0.35451488477895299</v>
-      </c>
-      <c r="Y19">
-        <v>0.43569511268675598</v>
-      </c>
-      <c r="Z19">
-        <v>0.31483444351933998</v>
-      </c>
-      <c r="AA19">
-        <v>0.60446322657176699</v>
-      </c>
-      <c r="AB19">
-        <v>0.41402442268077699</v>
-      </c>
-      <c r="AC19">
-        <v>0.429613967424614</v>
-      </c>
-      <c r="AD19">
-        <v>0.46136812969553098</v>
-      </c>
-      <c r="AE19">
-        <v>0.44492519722322399</v>
-      </c>
-      <c r="AF19">
-        <v>0.826949518457334</v>
-      </c>
-      <c r="AG19">
-        <v>0.97217714735029503</v>
-      </c>
-      <c r="AH19">
-        <v>7.5185502622323996E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20">
-        <v>2.52775507313364E-2</v>
-      </c>
-      <c r="B20">
-        <v>4.3801591501448099E-2</v>
-      </c>
-      <c r="C20">
-        <v>3.5438918832395298E-2</v>
-      </c>
-      <c r="D20">
-        <v>3.9178976495979997E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.29104717943212899</v>
-      </c>
-      <c r="F20">
-        <v>0.55036792692210101</v>
-      </c>
-      <c r="G20">
-        <v>0.38183930709104902</v>
-      </c>
-      <c r="H20">
-        <v>0.45086993576818302</v>
-      </c>
-      <c r="I20">
-        <v>0.33362555703969798</v>
-      </c>
-      <c r="J20">
-        <v>0.61810239117106003</v>
-      </c>
-      <c r="K20">
-        <v>0.433348111610459</v>
-      </c>
-      <c r="L20">
-        <v>0.45473884459607899</v>
-      </c>
-      <c r="M20">
-        <v>0.47067238912732401</v>
-      </c>
-      <c r="N20">
-        <v>0.46256844657887097</v>
-      </c>
-      <c r="O20">
-        <v>0.83489549291502996</v>
-      </c>
-      <c r="P20">
-        <v>0.97304074925203798</v>
-      </c>
-      <c r="Q20">
-        <v>7.3250983092976096E-3</v>
-      </c>
-      <c r="R20">
-        <v>2.3810470102042298E-2</v>
-      </c>
-      <c r="S20">
-        <v>4.6072762474370102E-2</v>
-      </c>
-      <c r="T20">
-        <v>3.5691510452826002E-2</v>
-      </c>
-      <c r="U20">
-        <v>4.0223105387575502E-2</v>
-      </c>
-      <c r="V20">
-        <v>0.27111315102908401</v>
-      </c>
-      <c r="W20">
-        <v>0.503589697567979</v>
-      </c>
-      <c r="X20">
-        <v>0.369993076846998</v>
-      </c>
-      <c r="Y20">
-        <v>0.426575951652444</v>
-      </c>
-      <c r="Z20">
-        <v>0.31655402198326799</v>
-      </c>
-      <c r="AA20">
-        <v>0.609134045077105</v>
-      </c>
-      <c r="AB20">
-        <v>0.41660649792846299</v>
-      </c>
-      <c r="AC20">
-        <v>0.43358666672132001</v>
-      </c>
-      <c r="AD20">
-        <v>0.465025701858442</v>
-      </c>
-      <c r="AE20">
-        <v>0.44875621805031302</v>
-      </c>
-      <c r="AF20">
-        <v>0.82452435705145</v>
-      </c>
-      <c r="AG20">
-        <v>0.97165365951073301</v>
-      </c>
-      <c r="AH20">
-        <v>7.9358654097205893E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21">
-        <v>2.60103231023954E-2</v>
-      </c>
-      <c r="B21">
-        <v>4.5044735435038501E-2</v>
-      </c>
-      <c r="C21">
-        <v>3.7593605677753501E-2</v>
-      </c>
-      <c r="D21">
-        <v>4.0983253027605603E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.29577279080192997</v>
-      </c>
-      <c r="F21">
-        <v>0.54092114781769896</v>
-      </c>
-      <c r="G21">
-        <v>0.39490176748116301</v>
-      </c>
-      <c r="H21">
-        <v>0.456519527036652</v>
-      </c>
-      <c r="I21">
-        <v>0.33475473635382302</v>
-      </c>
-      <c r="J21">
-        <v>0.617872470876762</v>
-      </c>
-      <c r="K21">
-        <v>0.434242764680079</v>
-      </c>
-      <c r="L21">
-        <v>0.45701883127800103</v>
-      </c>
-      <c r="M21">
-        <v>0.47210300429184499</v>
-      </c>
-      <c r="N21">
-        <v>0.464438472984467</v>
-      </c>
-      <c r="O21">
-        <v>0.84214972790830001</v>
-      </c>
-      <c r="P21">
-        <v>0.97369383199373505</v>
-      </c>
-      <c r="Q21">
-        <v>7.3160292194718798E-3</v>
-      </c>
-      <c r="R21">
-        <v>2.63613765300083E-2</v>
-      </c>
-      <c r="S21">
-        <v>4.8529800989575898E-2</v>
-      </c>
-      <c r="T21">
-        <v>3.9688918529984199E-2</v>
-      </c>
-      <c r="U21">
-        <v>4.3666363063104001E-2</v>
-      </c>
-      <c r="V21">
-        <v>0.282953359069609</v>
-      </c>
-      <c r="W21">
-        <v>0.51777145903678601</v>
-      </c>
-      <c r="X21">
-        <v>0.38420202419806798</v>
-      </c>
-      <c r="Y21">
-        <v>0.44109687553225702</v>
-      </c>
-      <c r="Z21">
-        <v>0.315274811590115</v>
-      </c>
-      <c r="AA21">
-        <v>0.60642793594305999</v>
-      </c>
-      <c r="AB21">
-        <v>0.41486575527550801</v>
-      </c>
-      <c r="AC21">
-        <v>0.43443276906617301</v>
-      </c>
-      <c r="AD21">
-        <v>0.46631079478054499</v>
-      </c>
-      <c r="AE21">
-        <v>0.449807687677097</v>
-      </c>
-      <c r="AF21">
-        <v>0.82766830971776695</v>
-      </c>
-      <c r="AG21">
-        <v>0.97233709761628295</v>
-      </c>
-      <c r="AH21">
-        <v>7.7855153963749197E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22">
-        <v>2.5184896760706701E-2</v>
-      </c>
-      <c r="B22">
-        <v>4.3323510201220099E-2</v>
-      </c>
-      <c r="C22">
-        <v>3.6331488630469297E-2</v>
-      </c>
-      <c r="D22">
-        <v>3.9520623724658401E-2</v>
-      </c>
-      <c r="E22">
-        <v>0.28810693717968999</v>
-      </c>
-      <c r="F22">
-        <v>0.53571077709008696</v>
-      </c>
-      <c r="G22">
-        <v>0.38398704316597398</v>
-      </c>
-      <c r="H22">
-        <v>0.447333880229696</v>
-      </c>
-      <c r="I22">
-        <v>0.32936046958881798</v>
-      </c>
-      <c r="J22">
-        <v>0.61603310852237803</v>
-      </c>
-      <c r="K22">
-        <v>0.429232773741828</v>
-      </c>
-      <c r="L22">
-        <v>0.44935078199770601</v>
-      </c>
-      <c r="M22">
-        <v>0.466584917228694</v>
-      </c>
-      <c r="N22">
-        <v>0.45780571191215202</v>
-      </c>
-      <c r="O22">
-        <v>0.83499350005332995</v>
-      </c>
-      <c r="P22">
-        <v>0.97267338651170399</v>
-      </c>
-      <c r="Q22">
-        <v>7.4450337701459403E-3</v>
-      </c>
-      <c r="R22">
-        <v>2.5789261375279E-2</v>
-      </c>
-      <c r="S22">
-        <v>4.9135389248849103E-2</v>
-      </c>
-      <c r="T22">
-        <v>3.8679895416995798E-2</v>
-      </c>
-      <c r="U22">
-        <v>4.3285214519336798E-2</v>
-      </c>
-      <c r="V22">
-        <v>0.28115161915579201</v>
-      </c>
-      <c r="W22">
-        <v>0.52830232450238901</v>
-      </c>
-      <c r="X22">
-        <v>0.37538324596973499</v>
-      </c>
-      <c r="Y22">
-        <v>0.438904521450873</v>
-      </c>
-      <c r="Z22">
-        <v>0.31266731890748201</v>
-      </c>
-      <c r="AA22">
-        <v>0.60342526690391396</v>
-      </c>
-      <c r="AB22">
-        <v>0.41190456791388502</v>
-      </c>
-      <c r="AC22">
-        <v>0.42866276019413602</v>
-      </c>
-      <c r="AD22">
-        <v>0.46190193752471298</v>
-      </c>
-      <c r="AE22">
-        <v>0.44466204417384497</v>
-      </c>
-      <c r="AF22">
-        <v>0.82515132458815699</v>
-      </c>
-      <c r="AG22">
-        <v>0.97193404495392599</v>
-      </c>
-      <c r="AH22">
-        <v>7.7567441562068499E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23">
-        <v>2.5050315267401702E-2</v>
-      </c>
-      <c r="B23">
-        <v>4.3368490653210703E-2</v>
-      </c>
-      <c r="C23">
-        <v>3.4934463263632698E-2</v>
-      </c>
-      <c r="D23">
-        <v>3.86972615396542E-2</v>
-      </c>
-      <c r="E23">
-        <v>0.29030170670549199</v>
-      </c>
-      <c r="F23">
-        <v>0.55345944278811499</v>
-      </c>
-      <c r="G23">
-        <v>0.37909302161819503</v>
-      </c>
-      <c r="H23">
-        <v>0.44997492477432299</v>
-      </c>
-      <c r="I23">
-        <v>0.33158851309035697</v>
-      </c>
-      <c r="J23">
-        <v>0.61511342734518704</v>
-      </c>
-      <c r="K23">
-        <v>0.43089495868460398</v>
-      </c>
-      <c r="L23">
-        <v>0.449876349220314</v>
-      </c>
-      <c r="M23">
-        <v>0.46609442060085798</v>
-      </c>
-      <c r="N23">
-        <v>0.45784180727253798</v>
-      </c>
-      <c r="O23">
-        <v>0.83511473321497598</v>
-      </c>
-      <c r="P23">
-        <v>0.97278587915694004</v>
-      </c>
-      <c r="Q23">
-        <v>7.2818865989158401E-3</v>
-      </c>
-      <c r="R23">
-        <v>2.46839593006455E-2</v>
-      </c>
-      <c r="S23">
-        <v>4.9518341508008303E-2</v>
-      </c>
-      <c r="T23">
-        <v>3.5468291333506499E-2</v>
-      </c>
-      <c r="U23">
-        <v>4.1331934310972297E-2</v>
-      </c>
-      <c r="V23">
-        <v>0.281132266302561</v>
-      </c>
-      <c r="W23">
-        <v>0.54678010278098799</v>
-      </c>
-      <c r="X23">
-        <v>0.36654798404377997</v>
-      </c>
-      <c r="Y23">
-        <v>0.43888093945823198</v>
-      </c>
-      <c r="Z23">
-        <v>0.313359625811863</v>
-      </c>
-      <c r="AA23">
-        <v>0.60531583629893204</v>
-      </c>
-      <c r="AB23">
-        <v>0.41294570669125402</v>
-      </c>
-      <c r="AC23">
-        <v>0.43178763673617998</v>
-      </c>
-      <c r="AD23">
-        <v>0.46437327006722001</v>
-      </c>
-      <c r="AE23">
-        <v>0.44748802435713603</v>
-      </c>
-      <c r="AF23">
-        <v>0.82302394396920497</v>
-      </c>
-      <c r="AG23">
-        <v>0.97153266515488401</v>
-      </c>
-      <c r="AH23">
-        <v>7.6143165028331999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25">
-        <f>_xlfn.T.TEST(A2:A11,A14:A23,2,1)</f>
-        <v>0.51732038161856475</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:AH25" si="1">_xlfn.T.TEST(B2:B11,B14:B23,2,1)</f>
-        <v>0.33951919302538613</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>0.81049817917492872</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.72266492904717516</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>4.7798327102695458E-2</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0.18837875302524823</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0.97454554809234084</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>4.8199488102204348E-2</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>1.6817175089472558E-2</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>1.7675566556529167E-2</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>1.6047040925225676E-2</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>2.7795462721785985E-2</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>3.1596850972589928E-2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>2.9196949002128228E-2</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="1"/>
-        <v>4.3977165061693198E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="1"/>
-        <v>5.1838620303042086E-2</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>0.39871641244871503</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="1"/>
-        <v>0.86450426935166691</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="1"/>
-        <v>0.34687829144219817</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="1"/>
-        <v>0.63704926534978279</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="1"/>
-        <v>0.91042022548827173</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="1"/>
-        <v>0.16722602963267455</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>7.4109617524542246E-2</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="1"/>
-        <v>0.88816596574866846</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="1"/>
-        <v>0.167485345992681</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="1"/>
-        <v>9.7282970643813027E-3</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="1"/>
-        <v>1.1389405590753751E-2</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="1"/>
-        <v>9.1268692682002807E-3</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="1"/>
-        <v>2.3534789317541036E-2</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="1"/>
-        <v>2.0248357816667246E-2</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="1"/>
-        <v>2.1639893005993126E-2</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="1"/>
-        <v>4.8086716042683046E-2</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="1"/>
-        <v>0.1919430732372979</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="1"/>
-        <v>0.36621157453047559</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3463,15 +2285,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051944717AD2809449324EC1A13EBD0BB" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a840b1a1ff7c0ed648c36b83297ef158">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1b835ce5-16f2-421e-8510-4750c6de8732" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93f8cd6c20f8f6bca219fc6b7c8d7ca2" ns3:_="">
     <xsd:import namespace="1b835ce5-16f2-421e-8510-4750c6de8732"/>
@@ -3635,6 +2448,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3642,14 +2464,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DC9FE7-1397-4748-A97D-16E07237C7ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D54C725-D505-49BF-9ADD-45887CDE0F30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3667,18 +2481,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DC9FE7-1397-4748-A97D-16E07237C7ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2779B861-71BE-4F2E-96F7-4591D1C69844}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>